--- a/doc_templates/planRH.xlsx
+++ b/doc_templates/planRH.xlsx
@@ -15,12 +15,15 @@
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="dataplan" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">main!$A$1:$K$39</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Data</t>
   </si>
@@ -42,6 +45,12 @@
   <si>
     <t>Nome:</t>
   </si>
+  <si>
+    <t>Registo Diário de Horas de Trabalho</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
 </sst>
 </file>
 
@@ -50,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +69,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,28 +128,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -133,20 +136,24 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -475,123 +482,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <f>IF(dataplan!A2&lt;&gt;"",dataplan!A2,"")</f>
         <v/>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="str">
-        <f>IF(dataplan!E2&lt;&gt;"",dataplan!E2,"")</f>
-        <v/>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="str">
+        <f>IF(dataplan!E2&lt;&gt;"",CONCATENATE(dataplan!E2," ",dataplan!K2),"")</f>
+        <v/>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -622,902 +589,1063 @@
       <c r="J8" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
+      <c r="K8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="str">
         <f>IF(dataplan!B2&lt;&gt;"",dataplan!B2,"")</f>
         <v/>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="7" t="str">
         <f>IF(dataplan!F2&lt;&gt;"",dataplan!F2,"")</f>
         <v/>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="7" t="str">
         <f>IF(TRIM(dataplan!G2)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G2,2),":",RIGHT(dataplan!G2,2)),"")</f>
         <v/>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="str">
         <f>IF(TRIM(dataplan!H2)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H2,2),":",RIGHT(dataplan!H2,2)),"")</f>
         <v/>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="str">
         <f>IF(TRIM(dataplan!I2)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I2,2),":",RIGHT(dataplan!I2,2)),"")</f>
         <v/>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="str">
         <f>IF(TRIM(dataplan!J2)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J2,2),":",RIGHT(dataplan!J2,2)),"")</f>
         <v/>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="7" t="str">
         <f>IF(dataplan!L2&lt;&gt;"",dataplan!L2,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
+      <c r="K9" s="7" t="str">
+        <f>IF(dataplan!M2&lt;&gt;"",dataplan!M2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="str">
         <f>IF(dataplan!B3&lt;&gt;"",dataplan!B3,"")</f>
         <v/>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="7" t="str">
         <f>IF(dataplan!F3&lt;&gt;"",dataplan!F3,"")</f>
         <v/>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="7" t="str">
         <f>IF(TRIM(dataplan!G3)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G3,2),":",RIGHT(dataplan!G3,2)),"")</f>
         <v/>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="str">
         <f>IF(TRIM(dataplan!H3)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H3,2),":",RIGHT(dataplan!H3,2)),"")</f>
         <v/>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="str">
         <f>IF(TRIM(dataplan!I3)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I3,2),":",RIGHT(dataplan!I3,2)),"")</f>
         <v/>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="str">
         <f>IF(TRIM(dataplan!J3)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J3,2),":",RIGHT(dataplan!J3,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
         <f>IF(dataplan!B4&lt;&gt;"",dataplan!B4,"")</f>
         <v/>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="7" t="str">
         <f>IF(dataplan!F4&lt;&gt;"",dataplan!F4,"")</f>
         <v/>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="7" t="str">
         <f>IF(TRIM(dataplan!G4)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G4,2),":",RIGHT(dataplan!G4,2)),"")</f>
         <v/>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="str">
         <f>IF(TRIM(dataplan!H4)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H4,2),":",RIGHT(dataplan!H4,2)),"")</f>
         <v/>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="str">
         <f>IF(TRIM(dataplan!I4)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I4,2),":",RIGHT(dataplan!I4,2)),"")</f>
         <v/>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="str">
         <f>IF(TRIM(dataplan!J4)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J4,2),":",RIGHT(dataplan!J4,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
         <f>IF(dataplan!B5&lt;&gt;"",dataplan!B5,"")</f>
         <v/>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="7" t="str">
         <f>IF(dataplan!F5&lt;&gt;"",dataplan!F5,"")</f>
         <v/>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="7" t="str">
         <f>IF(TRIM(dataplan!G5)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G5,2),":",RIGHT(dataplan!G5,2)),"")</f>
         <v/>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="str">
         <f>IF(TRIM(dataplan!H5)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H5,2),":",RIGHT(dataplan!H5,2)),"")</f>
         <v/>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="str">
         <f>IF(TRIM(dataplan!I5)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I5,2),":",RIGHT(dataplan!I5,2)),"")</f>
         <v/>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="str">
         <f>IF(TRIM(dataplan!J5)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J5,2),":",RIGHT(dataplan!J5,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
         <f>IF(dataplan!B6&lt;&gt;"",dataplan!B6,"")</f>
         <v/>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="7" t="str">
         <f>IF(dataplan!F6&lt;&gt;"",dataplan!F6,"")</f>
         <v/>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="7" t="str">
         <f>IF(TRIM(dataplan!G6)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G6,2),":",RIGHT(dataplan!G6,2)),"")</f>
         <v/>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="str">
         <f>IF(TRIM(dataplan!H6)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H6,2),":",RIGHT(dataplan!H6,2)),"")</f>
         <v/>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="str">
         <f>IF(TRIM(dataplan!I6)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I6,2),":",RIGHT(dataplan!I6,2)),"")</f>
         <v/>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="str">
         <f>IF(TRIM(dataplan!J6)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J6,2),":",RIGHT(dataplan!J6,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="str">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
         <f>IF(dataplan!B7&lt;&gt;"",dataplan!B7,"")</f>
         <v/>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="7" t="str">
         <f>IF(dataplan!F7&lt;&gt;"",dataplan!F7,"")</f>
         <v/>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="7" t="str">
         <f>IF(TRIM(dataplan!G7)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G7,2),":",RIGHT(dataplan!G7,2)),"")</f>
         <v/>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="str">
         <f>IF(TRIM(dataplan!H7)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H7,2),":",RIGHT(dataplan!H7,2)),"")</f>
         <v/>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="str">
         <f>IF(TRIM(dataplan!I7)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I7,2),":",RIGHT(dataplan!I7,2)),"")</f>
         <v/>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="str">
         <f>IF(TRIM(dataplan!J7)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J7,2),":",RIGHT(dataplan!J7,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
         <f>IF(dataplan!B8&lt;&gt;"",dataplan!B8,"")</f>
         <v/>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="7" t="str">
         <f>IF(dataplan!F8&lt;&gt;"",dataplan!F8,"")</f>
         <v/>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="7" t="str">
         <f>IF(TRIM(dataplan!G8)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G8,2),":",RIGHT(dataplan!G8,2)),"")</f>
         <v/>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="str">
         <f>IF(TRIM(dataplan!H8)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H8,2),":",RIGHT(dataplan!H8,2)),"")</f>
         <v/>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="str">
         <f>IF(TRIM(dataplan!I8)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I8,2),":",RIGHT(dataplan!I8,2)),"")</f>
         <v/>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="str">
         <f>IF(TRIM(dataplan!J8)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J8,2),":",RIGHT(dataplan!J8,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
         <f>IF(dataplan!B9&lt;&gt;"",dataplan!B9,"")</f>
         <v/>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="7" t="str">
         <f>IF(dataplan!F9&lt;&gt;"",dataplan!F9,"")</f>
         <v/>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="7" t="str">
         <f>IF(TRIM(dataplan!G9)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G9,2),":",RIGHT(dataplan!G9,2)),"")</f>
         <v/>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="str">
         <f>IF(TRIM(dataplan!H9)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H9,2),":",RIGHT(dataplan!H9,2)),"")</f>
         <v/>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="str">
         <f>IF(TRIM(dataplan!I9)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I9,2),":",RIGHT(dataplan!I9,2)),"")</f>
         <v/>
       </c>
-      <c r="I16" s="2" t="str">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="str">
         <f>IF(TRIM(dataplan!J9)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J9,2),":",RIGHT(dataplan!J9,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="str">
         <f>IF(dataplan!B10&lt;&gt;"",dataplan!B10,"")</f>
         <v/>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="7" t="str">
         <f>IF(dataplan!F10&lt;&gt;"",dataplan!F10,"")</f>
         <v/>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="7" t="str">
         <f>IF(TRIM(dataplan!G10)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G10,2),":",RIGHT(dataplan!G10,2)),"")</f>
         <v/>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="str">
         <f>IF(TRIM(dataplan!H10)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H10,2),":",RIGHT(dataplan!H10,2)),"")</f>
         <v/>
       </c>
-      <c r="G17" s="2" t="str">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="str">
         <f>IF(TRIM(dataplan!I10)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I10,2),":",RIGHT(dataplan!I10,2)),"")</f>
         <v/>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="str">
         <f>IF(TRIM(dataplan!J10)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J10,2),":",RIGHT(dataplan!J10,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="str">
         <f>IF(dataplan!B11&lt;&gt;"",dataplan!B11,"")</f>
         <v/>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="7" t="str">
         <f>IF(dataplan!F11&lt;&gt;"",dataplan!F11,"")</f>
         <v/>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="7" t="str">
         <f>IF(TRIM(dataplan!G11)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G11,2),":",RIGHT(dataplan!G11,2)),"")</f>
         <v/>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="str">
         <f>IF(TRIM(dataplan!H11)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H11,2),":",RIGHT(dataplan!H11,2)),"")</f>
         <v/>
       </c>
-      <c r="G18" s="2" t="str">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="str">
         <f>IF(TRIM(dataplan!I11)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I11,2),":",RIGHT(dataplan!I11,2)),"")</f>
         <v/>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="str">
         <f>IF(TRIM(dataplan!J11)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J11,2),":",RIGHT(dataplan!J11,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="str">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="str">
         <f>IF(dataplan!B12&lt;&gt;"",dataplan!B12,"")</f>
         <v/>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="7" t="str">
         <f>IF(dataplan!F12&lt;&gt;"",dataplan!F12,"")</f>
         <v/>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="7" t="str">
         <f>IF(TRIM(dataplan!G12)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G12,2),":",RIGHT(dataplan!G12,2)),"")</f>
         <v/>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="str">
         <f>IF(TRIM(dataplan!H12)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H12,2),":",RIGHT(dataplan!H12,2)),"")</f>
         <v/>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="str">
         <f>IF(TRIM(dataplan!I12)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I12,2),":",RIGHT(dataplan!I12,2)),"")</f>
         <v/>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="str">
         <f>IF(TRIM(dataplan!J12)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J12,2),":",RIGHT(dataplan!J12,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="str">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
         <f>IF(dataplan!B13&lt;&gt;"",dataplan!B13,"")</f>
         <v/>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="7" t="str">
         <f>IF(dataplan!F13&lt;&gt;"",dataplan!F13,"")</f>
         <v/>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="7" t="str">
         <f>IF(TRIM(dataplan!G13)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G13,2),":",RIGHT(dataplan!G13,2)),"")</f>
         <v/>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="str">
         <f>IF(TRIM(dataplan!H13)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H13,2),":",RIGHT(dataplan!H13,2)),"")</f>
         <v/>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="str">
         <f>IF(TRIM(dataplan!I13)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I13,2),":",RIGHT(dataplan!I13,2)),"")</f>
         <v/>
       </c>
-      <c r="I20" s="2" t="str">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="str">
         <f>IF(TRIM(dataplan!J13)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J13,2),":",RIGHT(dataplan!J13,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
         <f>IF(dataplan!B14&lt;&gt;"",dataplan!B14,"")</f>
         <v/>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="7" t="str">
         <f>IF(dataplan!F14&lt;&gt;"",dataplan!F14,"")</f>
         <v/>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="7" t="str">
         <f>IF(TRIM(dataplan!G14)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G14,2),":",RIGHT(dataplan!G14,2)),"")</f>
         <v/>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="str">
         <f>IF(TRIM(dataplan!H14)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H14,2),":",RIGHT(dataplan!H14,2)),"")</f>
         <v/>
       </c>
-      <c r="G21" s="2" t="str">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="str">
         <f>IF(TRIM(dataplan!I14)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I14,2),":",RIGHT(dataplan!I14,2)),"")</f>
         <v/>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="str">
         <f>IF(TRIM(dataplan!J14)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J14,2),":",RIGHT(dataplan!J14,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
         <f>IF(dataplan!B15&lt;&gt;"",dataplan!B15,"")</f>
         <v/>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="7" t="str">
         <f>IF(dataplan!F15&lt;&gt;"",dataplan!F15,"")</f>
         <v/>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="7" t="str">
         <f>IF(TRIM(dataplan!G15)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G15,2),":",RIGHT(dataplan!G15,2)),"")</f>
         <v/>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="str">
         <f>IF(TRIM(dataplan!H15)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H15,2),":",RIGHT(dataplan!H15,2)),"")</f>
         <v/>
       </c>
-      <c r="G22" s="2" t="str">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="str">
         <f>IF(TRIM(dataplan!I15)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I15,2),":",RIGHT(dataplan!I15,2)),"")</f>
         <v/>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="str">
         <f>IF(TRIM(dataplan!J15)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J15,2),":",RIGHT(dataplan!J15,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
         <f>IF(dataplan!B16&lt;&gt;"",dataplan!B16,"")</f>
         <v/>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="7" t="str">
         <f>IF(dataplan!F16&lt;&gt;"",dataplan!F16,"")</f>
         <v/>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" s="7" t="str">
         <f>IF(TRIM(dataplan!G16)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G16,2),":",RIGHT(dataplan!G16,2)),"")</f>
         <v/>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="str">
         <f>IF(TRIM(dataplan!H16)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H16,2),":",RIGHT(dataplan!H16,2)),"")</f>
         <v/>
       </c>
-      <c r="G23" s="2" t="str">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="str">
         <f>IF(TRIM(dataplan!I16)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I16,2),":",RIGHT(dataplan!I16,2)),"")</f>
         <v/>
       </c>
-      <c r="I23" s="2" t="str">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7" t="str">
         <f>IF(TRIM(dataplan!J16)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J16,2),":",RIGHT(dataplan!J16,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="str">
         <f>IF(dataplan!B17&lt;&gt;"",dataplan!B17,"")</f>
         <v/>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="7" t="str">
         <f>IF(dataplan!F17&lt;&gt;"",dataplan!F17,"")</f>
         <v/>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="7" t="str">
         <f>IF(TRIM(dataplan!G17)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G17,2),":",RIGHT(dataplan!G17,2)),"")</f>
         <v/>
       </c>
-      <c r="E24" s="2" t="str">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="str">
         <f>IF(TRIM(dataplan!H17)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H17,2),":",RIGHT(dataplan!H17,2)),"")</f>
         <v/>
       </c>
-      <c r="G24" s="2" t="str">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="str">
         <f>IF(TRIM(dataplan!I17)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I17,2),":",RIGHT(dataplan!I17,2)),"")</f>
         <v/>
       </c>
-      <c r="I24" s="2" t="str">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="str">
         <f>IF(TRIM(dataplan!J17)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J17,2),":",RIGHT(dataplan!J17,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
         <f>IF(dataplan!B18&lt;&gt;"",dataplan!B18,"")</f>
         <v/>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="7" t="str">
         <f>IF(dataplan!F18&lt;&gt;"",dataplan!F18,"")</f>
         <v/>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" s="7" t="str">
         <f>IF(TRIM(dataplan!G18)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G18,2),":",RIGHT(dataplan!G18,2)),"")</f>
         <v/>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="str">
         <f>IF(TRIM(dataplan!H18)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H18,2),":",RIGHT(dataplan!H18,2)),"")</f>
         <v/>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="str">
         <f>IF(TRIM(dataplan!I18)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I18,2),":",RIGHT(dataplan!I18,2)),"")</f>
         <v/>
       </c>
-      <c r="I25" s="2" t="str">
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="str">
         <f>IF(TRIM(dataplan!J18)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J18,2),":",RIGHT(dataplan!J18,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="str">
         <f>IF(dataplan!B19&lt;&gt;"",dataplan!B19,"")</f>
         <v/>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="7" t="str">
         <f>IF(dataplan!F19&lt;&gt;"",dataplan!F19,"")</f>
         <v/>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C26" s="7" t="str">
         <f>IF(TRIM(dataplan!G19)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G19,2),":",RIGHT(dataplan!G19,2)),"")</f>
         <v/>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="str">
         <f>IF(TRIM(dataplan!H19)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H19,2),":",RIGHT(dataplan!H19,2)),"")</f>
         <v/>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="str">
         <f>IF(TRIM(dataplan!I19)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I19,2),":",RIGHT(dataplan!I19,2)),"")</f>
         <v/>
       </c>
-      <c r="I26" s="2" t="str">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7" t="str">
         <f>IF(TRIM(dataplan!J19)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J19,2),":",RIGHT(dataplan!J19,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="str">
         <f>IF(dataplan!B20&lt;&gt;"",dataplan!B20,"")</f>
         <v/>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="7" t="str">
         <f>IF(dataplan!F20&lt;&gt;"",dataplan!F20,"")</f>
         <v/>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" s="7" t="str">
         <f>IF(TRIM(dataplan!G20)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G20,2),":",RIGHT(dataplan!G20,2)),"")</f>
         <v/>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="str">
         <f>IF(TRIM(dataplan!H20)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H20,2),":",RIGHT(dataplan!H20,2)),"")</f>
         <v/>
       </c>
-      <c r="G27" s="2" t="str">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="str">
         <f>IF(TRIM(dataplan!I20)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I20,2),":",RIGHT(dataplan!I20,2)),"")</f>
         <v/>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="str">
         <f>IF(TRIM(dataplan!J20)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J20,2),":",RIGHT(dataplan!J20,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="str">
         <f>IF(dataplan!B21&lt;&gt;"",dataplan!B21,"")</f>
         <v/>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="7" t="str">
         <f>IF(dataplan!F21&lt;&gt;"",dataplan!F21,"")</f>
         <v/>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" s="7" t="str">
         <f>IF(TRIM(dataplan!G21)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G21,2),":",RIGHT(dataplan!G21,2)),"")</f>
         <v/>
       </c>
-      <c r="E28" s="2" t="str">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="str">
         <f>IF(TRIM(dataplan!H21)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H21,2),":",RIGHT(dataplan!H21,2)),"")</f>
         <v/>
       </c>
-      <c r="G28" s="2" t="str">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="str">
         <f>IF(TRIM(dataplan!I21)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I21,2),":",RIGHT(dataplan!I21,2)),"")</f>
         <v/>
       </c>
-      <c r="I28" s="2" t="str">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7" t="str">
         <f>IF(TRIM(dataplan!J21)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J21,2),":",RIGHT(dataplan!J21,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="str">
         <f>IF(dataplan!B22&lt;&gt;"",dataplan!B22,"")</f>
         <v/>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="7" t="str">
         <f>IF(dataplan!F22&lt;&gt;"",dataplan!F22,"")</f>
         <v/>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="7" t="str">
         <f>IF(TRIM(dataplan!G22)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G22,2),":",RIGHT(dataplan!G22,2)),"")</f>
         <v/>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="str">
         <f>IF(TRIM(dataplan!H22)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H22,2),":",RIGHT(dataplan!H22,2)),"")</f>
         <v/>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="str">
         <f>IF(TRIM(dataplan!I22)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I22,2),":",RIGHT(dataplan!I22,2)),"")</f>
         <v/>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7" t="str">
         <f>IF(TRIM(dataplan!J22)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J22,2),":",RIGHT(dataplan!J22,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="str">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="str">
         <f>IF(dataplan!B23&lt;&gt;"",dataplan!B23,"")</f>
         <v/>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="7" t="str">
         <f>IF(dataplan!F23&lt;&gt;"",dataplan!F23,"")</f>
         <v/>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" s="7" t="str">
         <f>IF(TRIM(dataplan!G23)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G23,2),":",RIGHT(dataplan!G23,2)),"")</f>
         <v/>
       </c>
-      <c r="E30" s="2" t="str">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="str">
         <f>IF(TRIM(dataplan!H23)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H23,2),":",RIGHT(dataplan!H23,2)),"")</f>
         <v/>
       </c>
-      <c r="G30" s="2" t="str">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="str">
         <f>IF(TRIM(dataplan!I23)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I23,2),":",RIGHT(dataplan!I23,2)),"")</f>
         <v/>
       </c>
-      <c r="I30" s="2" t="str">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7" t="str">
         <f>IF(TRIM(dataplan!J23)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J23,2),":",RIGHT(dataplan!J23,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="str">
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="str">
         <f>IF(dataplan!B24&lt;&gt;"",dataplan!B24,"")</f>
         <v/>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="7" t="str">
         <f>IF(dataplan!F24&lt;&gt;"",dataplan!F24,"")</f>
         <v/>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" s="7" t="str">
         <f>IF(TRIM(dataplan!G24)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G24,2),":",RIGHT(dataplan!G24,2)),"")</f>
         <v/>
       </c>
-      <c r="E31" s="2" t="str">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="str">
         <f>IF(TRIM(dataplan!H24)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H24,2),":",RIGHT(dataplan!H24,2)),"")</f>
         <v/>
       </c>
-      <c r="G31" s="2" t="str">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="str">
         <f>IF(TRIM(dataplan!I24)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I24,2),":",RIGHT(dataplan!I24,2)),"")</f>
         <v/>
       </c>
-      <c r="I31" s="2" t="str">
+      <c r="H31" s="7"/>
+      <c r="I31" s="7" t="str">
         <f>IF(TRIM(dataplan!J24)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J24,2),":",RIGHT(dataplan!J24,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="str">
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="str">
         <f>IF(dataplan!B25&lt;&gt;"",dataplan!B25,"")</f>
         <v/>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="7" t="str">
         <f>IF(dataplan!F25&lt;&gt;"",dataplan!F25,"")</f>
         <v/>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="7" t="str">
         <f>IF(TRIM(dataplan!G25)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G25,2),":",RIGHT(dataplan!G25,2)),"")</f>
         <v/>
       </c>
-      <c r="E32" s="2" t="str">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="str">
         <f>IF(TRIM(dataplan!H25)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H25,2),":",RIGHT(dataplan!H25,2)),"")</f>
         <v/>
       </c>
-      <c r="G32" s="2" t="str">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="str">
         <f>IF(TRIM(dataplan!I25)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I25,2),":",RIGHT(dataplan!I25,2)),"")</f>
         <v/>
       </c>
-      <c r="I32" s="2" t="str">
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="str">
         <f>IF(TRIM(dataplan!J25)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J25,2),":",RIGHT(dataplan!J25,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="str">
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="str">
         <f>IF(dataplan!B26&lt;&gt;"",dataplan!B26,"")</f>
         <v/>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B33" s="7" t="str">
         <f>IF(dataplan!F26&lt;&gt;"",dataplan!F26,"")</f>
         <v/>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="7" t="str">
         <f>IF(TRIM(dataplan!G26)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G26,2),":",RIGHT(dataplan!G26,2)),"")</f>
         <v/>
       </c>
-      <c r="E33" s="2" t="str">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="str">
         <f>IF(TRIM(dataplan!H26)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H26,2),":",RIGHT(dataplan!H26,2)),"")</f>
         <v/>
       </c>
-      <c r="G33" s="2" t="str">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="str">
         <f>IF(TRIM(dataplan!I26)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I26,2),":",RIGHT(dataplan!I26,2)),"")</f>
         <v/>
       </c>
-      <c r="I33" s="2" t="str">
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="str">
         <f>IF(TRIM(dataplan!J26)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J26,2),":",RIGHT(dataplan!J26,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="str">
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="str">
         <f>IF(dataplan!B27&lt;&gt;"",dataplan!B27,"")</f>
         <v/>
       </c>
-      <c r="B34" s="2" t="str">
+      <c r="B34" s="7" t="str">
         <f>IF(dataplan!F27&lt;&gt;"",dataplan!F27,"")</f>
         <v/>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" s="7" t="str">
         <f>IF(TRIM(dataplan!G27)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G27,2),":",RIGHT(dataplan!G27,2)),"")</f>
         <v/>
       </c>
-      <c r="E34" s="2" t="str">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="str">
         <f>IF(TRIM(dataplan!H27)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H27,2),":",RIGHT(dataplan!H27,2)),"")</f>
         <v/>
       </c>
-      <c r="G34" s="2" t="str">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="str">
         <f>IF(TRIM(dataplan!I27)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I27,2),":",RIGHT(dataplan!I27,2)),"")</f>
         <v/>
       </c>
-      <c r="I34" s="2" t="str">
+      <c r="H34" s="7"/>
+      <c r="I34" s="7" t="str">
         <f>IF(TRIM(dataplan!J27)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J27,2),":",RIGHT(dataplan!J27,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="str">
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="str">
         <f>IF(dataplan!B28&lt;&gt;"",dataplan!B28,"")</f>
         <v/>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" s="7" t="str">
         <f>IF(dataplan!F28&lt;&gt;"",dataplan!F28,"")</f>
         <v/>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="7" t="str">
         <f>IF(TRIM(dataplan!G28)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G28,2),":",RIGHT(dataplan!G28,2)),"")</f>
         <v/>
       </c>
-      <c r="E35" s="2" t="str">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="str">
         <f>IF(TRIM(dataplan!H28)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H28,2),":",RIGHT(dataplan!H28,2)),"")</f>
         <v/>
       </c>
-      <c r="G35" s="2" t="str">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="str">
         <f>IF(TRIM(dataplan!I28)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I28,2),":",RIGHT(dataplan!I28,2)),"")</f>
         <v/>
       </c>
-      <c r="I35" s="2" t="str">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7" t="str">
         <f>IF(TRIM(dataplan!J28)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J28,2),":",RIGHT(dataplan!J28,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="str">
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="str">
         <f>IF(dataplan!B29&lt;&gt;"",dataplan!B29,"")</f>
         <v/>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B36" s="7" t="str">
         <f>IF(dataplan!F29&lt;&gt;"",dataplan!F29,"")</f>
         <v/>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="7" t="str">
         <f>IF(TRIM(dataplan!G29)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G29,2),":",RIGHT(dataplan!G29,2)),"")</f>
         <v/>
       </c>
-      <c r="E36" s="2" t="str">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="str">
         <f>IF(TRIM(dataplan!H29)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H29,2),":",RIGHT(dataplan!H29,2)),"")</f>
         <v/>
       </c>
-      <c r="G36" s="2" t="str">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="str">
         <f>IF(TRIM(dataplan!I29)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I29,2),":",RIGHT(dataplan!I29,2)),"")</f>
         <v/>
       </c>
-      <c r="I36" s="2" t="str">
+      <c r="H36" s="7"/>
+      <c r="I36" s="7" t="str">
         <f>IF(TRIM(dataplan!J29)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J29,2),":",RIGHT(dataplan!J29,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="str">
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="str">
         <f>IF(dataplan!B30&lt;&gt;"",dataplan!B30,"")</f>
         <v/>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B37" s="7" t="str">
         <f>IF(dataplan!F30&lt;&gt;"",dataplan!F30,"")</f>
         <v/>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="7" t="str">
         <f>IF(TRIM(dataplan!G30)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G30,2),":",RIGHT(dataplan!G30,2)),"")</f>
         <v/>
       </c>
-      <c r="E37" s="2" t="str">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="str">
         <f>IF(TRIM(dataplan!H30)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H30,2),":",RIGHT(dataplan!H30,2)),"")</f>
         <v/>
       </c>
-      <c r="G37" s="2" t="str">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="str">
         <f>IF(TRIM(dataplan!I30)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I30,2),":",RIGHT(dataplan!I30,2)),"")</f>
         <v/>
       </c>
-      <c r="I37" s="2" t="str">
+      <c r="H37" s="7"/>
+      <c r="I37" s="7" t="str">
         <f>IF(TRIM(dataplan!J30)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J30,2),":",RIGHT(dataplan!J30,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="str">
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="str">
         <f>IF(dataplan!B31&lt;&gt;"",dataplan!B31,"")</f>
         <v/>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B38" s="7" t="str">
         <f>IF(dataplan!F31&lt;&gt;"",dataplan!F31,"")</f>
         <v/>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="7" t="str">
         <f>IF(TRIM(dataplan!G31)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G31,2),":",RIGHT(dataplan!G31,2)),"")</f>
         <v/>
       </c>
-      <c r="E38" s="2" t="str">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="str">
         <f>IF(TRIM(dataplan!H31)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H31,2),":",RIGHT(dataplan!H31,2)),"")</f>
         <v/>
       </c>
-      <c r="G38" s="2" t="str">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="str">
         <f>IF(TRIM(dataplan!I31)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I31,2),":",RIGHT(dataplan!I31,2)),"")</f>
         <v/>
       </c>
-      <c r="I38" s="2" t="str">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="str">
         <f>IF(TRIM(dataplan!J31)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J31,2),":",RIGHT(dataplan!J31,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="str">
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="str">
         <f>IF(dataplan!B32&lt;&gt;"",dataplan!B32,"")</f>
         <v/>
       </c>
-      <c r="B39" s="2" t="str">
+      <c r="B39" s="7" t="str">
         <f>IF(dataplan!F32&lt;&gt;"",dataplan!F32,"")</f>
         <v/>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="7" t="str">
         <f>IF(TRIM(dataplan!G32)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G32,2),":",RIGHT(dataplan!G32,2)),"")</f>
         <v/>
       </c>
-      <c r="E39" s="2" t="str">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="str">
         <f>IF(TRIM(dataplan!H32)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H32,2),":",RIGHT(dataplan!H32,2)),"")</f>
         <v/>
       </c>
-      <c r="G39" s="2" t="str">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="str">
         <f>IF(TRIM(dataplan!I32)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I32,2),":",RIGHT(dataplan!I32,2)),"")</f>
         <v/>
       </c>
-      <c r="I39" s="2" t="str">
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="str">
         <f>IF(TRIM(dataplan!J32)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J32,2),":",RIGHT(dataplan!J32,2)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="str">
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="str">
         <f>IF(dataplan!B33&lt;&gt;"",dataplan!B33,"")</f>
         <v/>
       </c>
-      <c r="B40" s="2" t="str">
+      <c r="B40" s="3" t="str">
         <f>IF(dataplan!F33&lt;&gt;"",dataplan!F33,"")</f>
         <v/>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="3" t="str">
         <f>IF(TRIM(dataplan!G33)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G33,2),":",RIGHT(dataplan!G33,2)),"")</f>
         <v/>
       </c>
-      <c r="E40" s="2" t="str">
+      <c r="E40" s="3" t="str">
         <f>IF(TRIM(dataplan!H33)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H33,2),":",RIGHT(dataplan!H33,2)),"")</f>
         <v/>
       </c>
-      <c r="G40" s="2" t="str">
+      <c r="G40" s="3" t="str">
         <f>IF(TRIM(dataplan!I33)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I33,2),":",RIGHT(dataplan!I33,2)),"")</f>
         <v/>
       </c>
-      <c r="I40" s="2" t="str">
+      <c r="I40" s="3" t="str">
         <f>IF(TRIM(dataplan!J33)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J33,2),":",RIGHT(dataplan!J33,2)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="str">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="str">
         <f>IF(dataplan!B34&lt;&gt;"",dataplan!B34,"")</f>
         <v/>
       </c>
-      <c r="B41" s="2" t="str">
+      <c r="B41" s="3" t="str">
         <f>IF(dataplan!F34&lt;&gt;"",dataplan!F34,"")</f>
         <v/>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" s="3" t="str">
         <f>IF(TRIM(dataplan!G34)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G34,2),":",RIGHT(dataplan!G34,2)),"")</f>
         <v/>
       </c>
-      <c r="E41" s="2" t="str">
+      <c r="E41" s="3" t="str">
         <f>IF(TRIM(dataplan!H34)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H34,2),":",RIGHT(dataplan!H34,2)),"")</f>
         <v/>
       </c>
-      <c r="G41" s="2" t="str">
+      <c r="G41" s="3" t="str">
         <f>IF(TRIM(dataplan!I34)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I34,2),":",RIGHT(dataplan!I34,2)),"")</f>
         <v/>
       </c>
-      <c r="I41" s="2" t="str">
+      <c r="I41" s="3" t="str">
         <f>IF(TRIM(dataplan!J34)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J34,2),":",RIGHT(dataplan!J34,2)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="str">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="str">
         <f>IF(dataplan!B35&lt;&gt;"",dataplan!B35,"")</f>
         <v/>
       </c>
-      <c r="B42" s="2" t="str">
+      <c r="B42" s="3" t="str">
         <f>IF(dataplan!F35&lt;&gt;"",dataplan!F35,"")</f>
         <v/>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C42" s="3" t="str">
         <f>IF(TRIM(dataplan!G35)&lt;&gt;"",CONCATENATE(LEFT(dataplan!G35,2),":",RIGHT(dataplan!G35,2)),"")</f>
         <v/>
       </c>
-      <c r="E42" s="2" t="str">
+      <c r="E42" s="3" t="str">
         <f>IF(TRIM(dataplan!H35)&lt;&gt;"",CONCATENATE(LEFT(dataplan!H35,2),":",RIGHT(dataplan!H35,2)),"")</f>
         <v/>
       </c>
-      <c r="G42" s="2" t="str">
+      <c r="G42" s="3" t="str">
         <f>IF(TRIM(dataplan!I35)&lt;&gt;"",CONCATENATE(LEFT(dataplan!I35,2),":",RIGHT(dataplan!I35,2)),"")</f>
         <v/>
       </c>
-      <c r="I42" s="2" t="str">
+      <c r="I42" s="3" t="str">
         <f>IF(TRIM(dataplan!J35)&lt;&gt;"",CONCATENATE(LEFT(dataplan!J35,2),":",RIGHT(dataplan!J35,2)),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C2:K3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" scale="63" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
